--- a/target/classes/resources/testdata/TestData.xlsx
+++ b/target/classes/resources/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aptitudo\Aptitudo_Auto\src\test\java\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AAEF5-EBCE-4265-8557-9AE81149D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562AABD-7A72-4980-8AAF-D6DFE8B615A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>admin</t>
   </si>
@@ -265,18 +265,30 @@
   <si>
     <t>How do you handle critical bugs during a release cycle?</t>
   </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>test-code-004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -316,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4C4AE3-27A2-4EEF-87DB-CE482C31C29F}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -854,8 +867,11 @@
       <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -876,6 +892,9 @@
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -900,6 +919,9 @@
       <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -923,6 +945,9 @@
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -946,6 +971,9 @@
       <c r="G11" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1022,7 +1050,28 @@
         <v>72</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>